--- a/xlsx/lipdb170127.xlsx
+++ b/xlsx/lipdb170127.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\Desktop\YOLO\팔레트(Palette)\DB\lip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1656,9 +1656,6 @@
     <t>플래시팟 플래시 팟 플레시 팟</t>
   </si>
   <si>
-    <t>L577</t>
-  </si>
-  <si>
     <t>L268</t>
   </si>
   <si>
@@ -2260,6 +2257,10 @@
   </si>
   <si>
     <t>YSL ysl 루쥬볼립떼샤인 루쥬볼립떼 30호</t>
+  </si>
+  <si>
+    <t>L469</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2714,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11450,7 +11451,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>545</v>
+        <v>746</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>463</v>
@@ -11489,7 +11490,7 @@
         <v>37</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -11548,7 +11549,7 @@
         <v>37</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -11607,7 +11608,7 @@
         <v>37</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -11666,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -11689,7 +11690,7 @@
         <v>474</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>475</v>
@@ -11713,7 +11714,7 @@
         <v>19000</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L153" s="10" t="s">
         <v>24</v>
@@ -11725,7 +11726,7 @@
         <v>27</v>
       </c>
       <c r="O153" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -11748,7 +11749,7 @@
         <v>478</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>475</v>
@@ -11772,7 +11773,7 @@
         <v>19000</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L154" s="10" t="s">
         <v>24</v>
@@ -11784,7 +11785,7 @@
         <v>27</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -11807,7 +11808,7 @@
         <v>481</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>475</v>
@@ -11831,7 +11832,7 @@
         <v>19000</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L155" s="10" t="s">
         <v>24</v>
@@ -11843,7 +11844,7 @@
         <v>27</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -11866,7 +11867,7 @@
         <v>483</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>475</v>
@@ -11890,7 +11891,7 @@
         <v>19000</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L156" s="10" t="s">
         <v>24</v>
@@ -11902,7 +11903,7 @@
         <v>27</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -11925,7 +11926,7 @@
         <v>486</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>475</v>
@@ -11949,7 +11950,7 @@
         <v>19000</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L157" s="10" t="s">
         <v>24</v>
@@ -11961,7 +11962,7 @@
         <v>27</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -11984,7 +11985,7 @@
         <v>487</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>475</v>
@@ -12008,7 +12009,7 @@
         <v>19000</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L158" s="10" t="s">
         <v>24</v>
@@ -12020,7 +12021,7 @@
         <v>27</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -12043,7 +12044,7 @@
         <v>488</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>475</v>
@@ -12067,7 +12068,7 @@
         <v>19000</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L159" s="10" t="s">
         <v>24</v>
@@ -12079,7 +12080,7 @@
         <v>27</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -12102,7 +12103,7 @@
         <v>492</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>475</v>
@@ -12126,7 +12127,7 @@
         <v>19000</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L160" s="10" t="s">
         <v>24</v>
@@ -12138,7 +12139,7 @@
         <v>27</v>
       </c>
       <c r="O160" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -12161,7 +12162,7 @@
         <v>493</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>475</v>
@@ -12185,7 +12186,7 @@
         <v>19000</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L161" s="10" t="s">
         <v>24</v>
@@ -12197,7 +12198,7 @@
         <v>27</v>
       </c>
       <c r="O161" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -12220,7 +12221,7 @@
         <v>494</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>475</v>
@@ -12244,7 +12245,7 @@
         <v>19000</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L162" s="10" t="s">
         <v>24</v>
@@ -12256,7 +12257,7 @@
         <v>27</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -12279,7 +12280,7 @@
         <v>496</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>475</v>
@@ -12303,7 +12304,7 @@
         <v>19000</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L163" s="10" t="s">
         <v>24</v>
@@ -12315,7 +12316,7 @@
         <v>27</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -12338,7 +12339,7 @@
         <v>499</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D164" s="17" t="s">
         <v>475</v>
@@ -12362,7 +12363,7 @@
         <v>19000</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L164" s="10" t="s">
         <v>24</v>
@@ -12374,7 +12375,7 @@
         <v>27</v>
       </c>
       <c r="O164" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -12421,7 +12422,7 @@
         <v>36000</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L165" s="10" t="s">
         <v>24</v>
@@ -12433,7 +12434,7 @@
         <v>37</v>
       </c>
       <c r="O165" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -12480,7 +12481,7 @@
         <v>36000</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L166" s="10" t="s">
         <v>24</v>
@@ -12492,7 +12493,7 @@
         <v>37</v>
       </c>
       <c r="O166" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -12539,7 +12540,7 @@
         <v>36000</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L167" s="10" t="s">
         <v>24</v>
@@ -12551,7 +12552,7 @@
         <v>37</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -12598,7 +12599,7 @@
         <v>36000</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L168" s="10" t="s">
         <v>24</v>
@@ -12610,7 +12611,7 @@
         <v>37</v>
       </c>
       <c r="O168" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -12657,7 +12658,7 @@
         <v>42000</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L169" s="16" t="s">
         <v>24</v>
@@ -12669,7 +12670,7 @@
         <v>27</v>
       </c>
       <c r="O169" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -12716,7 +12717,7 @@
         <v>42000</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L170" s="16" t="s">
         <v>24</v>
@@ -12728,7 +12729,7 @@
         <v>27</v>
       </c>
       <c r="O170" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -12775,7 +12776,7 @@
         <v>42000</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L171" s="16" t="s">
         <v>24</v>
@@ -12787,7 +12788,7 @@
         <v>27</v>
       </c>
       <c r="O171" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -12834,7 +12835,7 @@
         <v>42000</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L172" s="16" t="s">
         <v>24</v>
@@ -12846,7 +12847,7 @@
         <v>27</v>
       </c>
       <c r="O172" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -12893,7 +12894,7 @@
         <v>42000</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L173" s="16" t="s">
         <v>24</v>
@@ -12905,7 +12906,7 @@
         <v>27</v>
       </c>
       <c r="O173" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -12950,7 +12951,7 @@
         <v>42000</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L174" s="16" t="s">
         <v>24</v>
@@ -12962,7 +12963,7 @@
         <v>27</v>
       </c>
       <c r="O174" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -13009,7 +13010,7 @@
         <v>42000</v>
       </c>
       <c r="K175" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L175" s="16" t="s">
         <v>24</v>
@@ -13021,7 +13022,7 @@
         <v>27</v>
       </c>
       <c r="O175" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -13068,7 +13069,7 @@
         <v>42000</v>
       </c>
       <c r="K176" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L176" s="16" t="s">
         <v>24</v>
@@ -13080,7 +13081,7 @@
         <v>27</v>
       </c>
       <c r="O176" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -13127,7 +13128,7 @@
         <v>42000</v>
       </c>
       <c r="K177" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L177" s="16" t="s">
         <v>24</v>
@@ -13139,7 +13140,7 @@
         <v>27</v>
       </c>
       <c r="O177" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -13186,7 +13187,7 @@
         <v>42000</v>
       </c>
       <c r="K178" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L178" s="16" t="s">
         <v>24</v>
@@ -13198,7 +13199,7 @@
         <v>27</v>
       </c>
       <c r="O178" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
@@ -13245,7 +13246,7 @@
         <v>42000</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L179" s="16" t="s">
         <v>24</v>
@@ -13257,7 +13258,7 @@
         <v>27</v>
       </c>
       <c r="O179" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -13295,7 +13296,7 @@
         <v>32</v>
       </c>
       <c r="H180" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>163</v>
@@ -13304,7 +13305,7 @@
         <v>42000</v>
       </c>
       <c r="K180" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L180" s="16" t="s">
         <v>24</v>
@@ -13316,7 +13317,7 @@
         <v>27</v>
       </c>
       <c r="O180" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -13336,10 +13337,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>547</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>515</v>
@@ -13363,7 +13364,7 @@
         <v>42000</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L181" s="16" t="s">
         <v>24</v>
@@ -13375,7 +13376,7 @@
         <v>27</v>
       </c>
       <c r="O181" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -13395,10 +13396,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C182" s="17" t="s">
         <v>549</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>550</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>515</v>
@@ -13422,7 +13423,7 @@
         <v>42000</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L182" s="16" t="s">
         <v>24</v>
@@ -13434,7 +13435,7 @@
         <v>27</v>
       </c>
       <c r="O182" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -13454,10 +13455,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>552</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>515</v>
@@ -13481,7 +13482,7 @@
         <v>42000</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L183" s="16" t="s">
         <v>24</v>
@@ -13493,7 +13494,7 @@
         <v>27</v>
       </c>
       <c r="O183" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -13513,10 +13514,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>515</v>
@@ -13540,7 +13541,7 @@
         <v>42000</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L184" s="16" t="s">
         <v>24</v>
@@ -13552,7 +13553,7 @@
         <v>27</v>
       </c>
       <c r="O184" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -13572,10 +13573,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>558</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>515</v>
@@ -13599,7 +13600,7 @@
         <v>42000</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L185" s="16" t="s">
         <v>24</v>
@@ -13611,7 +13612,7 @@
         <v>27</v>
       </c>
       <c r="O185" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -13631,10 +13632,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="C186" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>515</v>
@@ -13658,7 +13659,7 @@
         <v>42000</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L186" s="8" t="s">
         <v>152</v>
@@ -13670,7 +13671,7 @@
         <v>37</v>
       </c>
       <c r="O186" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -13690,10 +13691,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C187" s="17" t="s">
         <v>565</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>566</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>515</v>
@@ -13717,7 +13718,7 @@
         <v>42000</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L187" s="8" t="s">
         <v>152</v>
@@ -13729,7 +13730,7 @@
         <v>37</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -13749,10 +13750,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>567</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>568</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>515</v>
@@ -13776,7 +13777,7 @@
         <v>42000</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L188" s="8" t="s">
         <v>152</v>
@@ -13788,7 +13789,7 @@
         <v>37</v>
       </c>
       <c r="O188" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -13808,10 +13809,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C189" s="17" t="s">
         <v>569</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>570</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>515</v>
@@ -13835,7 +13836,7 @@
         <v>42000</v>
       </c>
       <c r="K189" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L189" s="8" t="s">
         <v>152</v>
@@ -13847,7 +13848,7 @@
         <v>37</v>
       </c>
       <c r="O189" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -13867,10 +13868,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>515</v>
@@ -13894,7 +13895,7 @@
         <v>42000</v>
       </c>
       <c r="K190" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L190" s="8" t="s">
         <v>152</v>
@@ -13906,7 +13907,7 @@
         <v>27</v>
       </c>
       <c r="O190" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -13926,10 +13927,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D191" s="17" t="s">
         <v>515</v>
@@ -13953,7 +13954,7 @@
         <v>42000</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L191" s="8" t="s">
         <v>152</v>
@@ -13965,7 +13966,7 @@
         <v>37</v>
       </c>
       <c r="O191" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
@@ -13985,10 +13986,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>515</v>
@@ -14012,7 +14013,7 @@
         <v>42000</v>
       </c>
       <c r="K192" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L192" s="8" t="s">
         <v>152</v>
@@ -14024,7 +14025,7 @@
         <v>37</v>
       </c>
       <c r="O192" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -14044,10 +14045,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>515</v>
@@ -14071,7 +14072,7 @@
         <v>42000</v>
       </c>
       <c r="K193" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L193" s="8" t="s">
         <v>152</v>
@@ -14083,7 +14084,7 @@
         <v>37</v>
       </c>
       <c r="O193" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P193" s="12"/>
       <c r="Q193" s="12"/>
@@ -14103,10 +14104,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>502</v>
@@ -14130,10 +14131,10 @@
         <v>36000</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M194" s="8" t="s">
         <v>36</v>
@@ -14142,7 +14143,7 @@
         <v>37</v>
       </c>
       <c r="O194" s="16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P194" s="12"/>
       <c r="Q194" s="12"/>
@@ -14162,10 +14163,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C195" s="13" t="s">
         <v>591</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>592</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>502</v>
@@ -14189,10 +14190,10 @@
         <v>36000</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M195" s="8" t="s">
         <v>36</v>
@@ -14201,7 +14202,7 @@
         <v>37</v>
       </c>
       <c r="O195" s="16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -14221,10 +14222,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>593</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>594</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>502</v>
@@ -14248,10 +14249,10 @@
         <v>36000</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>36</v>
@@ -14260,7 +14261,7 @@
         <v>37</v>
       </c>
       <c r="O196" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P196" s="12"/>
       <c r="Q196" s="12"/>
@@ -14280,10 +14281,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>595</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>596</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>502</v>
@@ -14307,10 +14308,10 @@
         <v>36000</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M197" s="8" t="s">
         <v>36</v>
@@ -14319,7 +14320,7 @@
         <v>37</v>
       </c>
       <c r="O197" s="16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P197" s="12"/>
       <c r="Q197" s="12"/>
@@ -14339,10 +14340,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C198" s="17" t="s">
         <v>597</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>598</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>502</v>
@@ -14366,10 +14367,10 @@
         <v>36000</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>36</v>
@@ -14378,7 +14379,7 @@
         <v>37</v>
       </c>
       <c r="O198" s="16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -14398,10 +14399,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>600</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>601</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>502</v>
@@ -14425,10 +14426,10 @@
         <v>36000</v>
       </c>
       <c r="K199" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M199" s="8" t="s">
         <v>36</v>
@@ -14437,7 +14438,7 @@
         <v>37</v>
       </c>
       <c r="O199" s="16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -14457,10 +14458,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>603</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>604</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>502</v>
@@ -14484,10 +14485,10 @@
         <v>36000</v>
       </c>
       <c r="K200" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M200" s="8" t="s">
         <v>36</v>
@@ -14496,7 +14497,7 @@
         <v>37</v>
       </c>
       <c r="O200" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -14516,10 +14517,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>606</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>607</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>502</v>
@@ -14543,10 +14544,10 @@
         <v>36000</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M201" s="8" t="s">
         <v>36</v>
@@ -14555,7 +14556,7 @@
         <v>37</v>
       </c>
       <c r="O201" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -14575,10 +14576,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>610</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>611</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>502</v>
@@ -14602,10 +14603,10 @@
         <v>36000</v>
       </c>
       <c r="K202" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M202" s="8" t="s">
         <v>36</v>
@@ -14614,7 +14615,7 @@
         <v>37</v>
       </c>
       <c r="O202" s="16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -14634,10 +14635,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>613</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>614</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>502</v>
@@ -14661,10 +14662,10 @@
         <v>36000</v>
       </c>
       <c r="K203" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="L203" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="L203" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="M203" s="8" t="s">
         <v>36</v>
@@ -14673,7 +14674,7 @@
         <v>37</v>
       </c>
       <c r="O203" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -14693,10 +14694,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>616</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="D204" s="17" t="s">
         <v>502</v>
@@ -14720,10 +14721,10 @@
         <v>36000</v>
       </c>
       <c r="K204" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="L204" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="L204" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="M204" s="8" t="s">
         <v>36</v>
@@ -14732,7 +14733,7 @@
         <v>37</v>
       </c>
       <c r="O204" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -14752,10 +14753,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>620</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>621</v>
       </c>
       <c r="D205" s="17" t="s">
         <v>502</v>
@@ -14779,10 +14780,10 @@
         <v>36000</v>
       </c>
       <c r="K205" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="L205" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="L205" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>36</v>
@@ -14791,7 +14792,7 @@
         <v>37</v>
       </c>
       <c r="O205" s="16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -14811,10 +14812,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C206" s="17" t="s">
         <v>625</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>626</v>
       </c>
       <c r="D206" s="17" t="s">
         <v>475</v>
@@ -14838,7 +14839,7 @@
         <v>19000</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L206" s="8" t="s">
         <v>24</v>
@@ -14850,7 +14851,7 @@
         <v>27</v>
       </c>
       <c r="O206" s="16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -14870,10 +14871,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C207" s="17" t="s">
         <v>627</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>628</v>
       </c>
       <c r="D207" s="17" t="s">
         <v>475</v>
@@ -14897,7 +14898,7 @@
         <v>19000</v>
       </c>
       <c r="K207" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L207" s="8" t="s">
         <v>24</v>
@@ -14909,7 +14910,7 @@
         <v>27</v>
       </c>
       <c r="O207" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -14929,10 +14930,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="C208" s="17" t="s">
         <v>630</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>631</v>
       </c>
       <c r="D208" s="17" t="s">
         <v>475</v>
@@ -14956,7 +14957,7 @@
         <v>19000</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L208" s="8" t="s">
         <v>24</v>
@@ -14968,7 +14969,7 @@
         <v>27</v>
       </c>
       <c r="O208" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -14988,13 +14989,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="C209" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="C209" s="17" t="s">
-        <v>633</v>
-      </c>
       <c r="D209" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>276</v>
@@ -15015,10 +15016,10 @@
         <v>40000</v>
       </c>
       <c r="K209" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L209" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L209" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M209" s="8" t="s">
         <v>26</v>
@@ -15027,7 +15028,7 @@
         <v>27</v>
       </c>
       <c r="O209" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -15047,10 +15048,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D210" s="17" t="s">
         <v>515</v>
@@ -15074,7 +15075,7 @@
         <v>42000</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L210" s="8" t="s">
         <v>24</v>
@@ -15086,7 +15087,7 @@
         <v>27</v>
       </c>
       <c r="O210" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -15106,10 +15107,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C211" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>515</v>
@@ -15133,7 +15134,7 @@
         <v>42000</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L211" s="8" t="s">
         <v>24</v>
@@ -15145,7 +15146,7 @@
         <v>27</v>
       </c>
       <c r="O211" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
@@ -15165,13 +15166,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="C212" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="C212" s="17" t="s">
-        <v>642</v>
-      </c>
       <c r="D212" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E212" s="15" t="s">
         <v>276</v>
@@ -15195,7 +15196,7 @@
         <v>90</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M212" s="8" t="s">
         <v>36</v>
@@ -15204,7 +15205,7 @@
         <v>27</v>
       </c>
       <c r="O212" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P212" s="12"/>
       <c r="Q212" s="12"/>
@@ -15224,13 +15225,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C213" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="C213" s="13" t="s">
-        <v>645</v>
-      </c>
       <c r="D213" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E213" s="15" t="s">
         <v>276</v>
@@ -15254,7 +15255,7 @@
         <v>90</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M213" s="8" t="s">
         <v>36</v>
@@ -15263,7 +15264,7 @@
         <v>27</v>
       </c>
       <c r="O213" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P213" s="12"/>
       <c r="Q213" s="12"/>
@@ -15283,13 +15284,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="C214" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="C214" s="17" t="s">
-        <v>647</v>
-      </c>
       <c r="D214" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E214" s="15" t="s">
         <v>276</v>
@@ -15313,7 +15314,7 @@
         <v>90</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M214" s="8" t="s">
         <v>36</v>
@@ -15322,7 +15323,7 @@
         <v>27</v>
       </c>
       <c r="O214" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
@@ -15342,13 +15343,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="C215" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="C215" s="17" t="s">
-        <v>650</v>
-      </c>
       <c r="D215" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E215" s="15" t="s">
         <v>276</v>
@@ -15369,10 +15370,10 @@
         <v>40000</v>
       </c>
       <c r="K215" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L215" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L215" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M215" s="8" t="s">
         <v>26</v>
@@ -15381,7 +15382,7 @@
         <v>27</v>
       </c>
       <c r="O215" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P215" s="12"/>
       <c r="Q215" s="12"/>
@@ -15401,13 +15402,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="C216" s="17" t="s">
-        <v>653</v>
-      </c>
       <c r="D216" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E216" s="15" t="s">
         <v>276</v>
@@ -15428,10 +15429,10 @@
         <v>40000</v>
       </c>
       <c r="K216" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L216" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L216" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M216" s="8" t="s">
         <v>26</v>
@@ -15440,7 +15441,7 @@
         <v>27</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P216" s="12"/>
       <c r="Q216" s="12"/>
@@ -15460,13 +15461,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="C217" s="17" t="s">
-        <v>656</v>
-      </c>
       <c r="D217" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>276</v>
@@ -15487,10 +15488,10 @@
         <v>40000</v>
       </c>
       <c r="K217" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L217" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L217" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M217" s="8" t="s">
         <v>26</v>
@@ -15499,7 +15500,7 @@
         <v>27</v>
       </c>
       <c r="O217" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P217" s="12"/>
       <c r="Q217" s="12"/>
@@ -15519,13 +15520,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C218" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="C218" s="17" t="s">
-        <v>659</v>
-      </c>
       <c r="D218" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E218" s="15" t="s">
         <v>276</v>
@@ -15546,10 +15547,10 @@
         <v>40000</v>
       </c>
       <c r="K218" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L218" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L218" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M218" s="8" t="s">
         <v>26</v>
@@ -15558,7 +15559,7 @@
         <v>27</v>
       </c>
       <c r="O218" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -15578,13 +15579,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="C219" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="C219" s="17" t="s">
-        <v>662</v>
-      </c>
       <c r="D219" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E219" s="15" t="s">
         <v>276</v>
@@ -15605,10 +15606,10 @@
         <v>40000</v>
       </c>
       <c r="K219" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L219" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L219" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M219" s="8" t="s">
         <v>26</v>
@@ -15617,7 +15618,7 @@
         <v>27</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P219" s="12"/>
       <c r="Q219" s="12"/>
@@ -15637,13 +15638,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E220" s="15" t="s">
         <v>276</v>
@@ -15664,10 +15665,10 @@
         <v>40000</v>
       </c>
       <c r="K220" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L220" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="L220" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="M220" s="8" t="s">
         <v>26</v>
@@ -15676,7 +15677,7 @@
         <v>27</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P220" s="12"/>
       <c r="Q220" s="12"/>
@@ -15696,10 +15697,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="C221" s="17" t="s">
         <v>667</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>668</v>
       </c>
       <c r="D221" s="17" t="s">
         <v>475</v>
@@ -15735,7 +15736,7 @@
         <v>37</v>
       </c>
       <c r="O221" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P221" s="12"/>
       <c r="Q221" s="12"/>
@@ -15755,10 +15756,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>670</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>671</v>
       </c>
       <c r="D222" s="17" t="s">
         <v>475</v>
@@ -15794,7 +15795,7 @@
         <v>37</v>
       </c>
       <c r="O222" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P222" s="12"/>
       <c r="Q222" s="12"/>
@@ -15814,10 +15815,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C223" s="17" t="s">
         <v>673</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>674</v>
       </c>
       <c r="D223" s="17" t="s">
         <v>475</v>
@@ -15853,7 +15854,7 @@
         <v>37</v>
       </c>
       <c r="O223" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P223" s="12"/>
       <c r="Q223" s="12"/>
@@ -15873,10 +15874,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>475</v>
@@ -15912,7 +15913,7 @@
         <v>37</v>
       </c>
       <c r="O224" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P224" s="12"/>
       <c r="Q224" s="12"/>
@@ -15932,10 +15933,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="C225" s="17" t="s">
         <v>679</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>680</v>
       </c>
       <c r="D225" s="17" t="s">
         <v>475</v>
@@ -15971,7 +15972,7 @@
         <v>37</v>
       </c>
       <c r="O225" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P225" s="12"/>
       <c r="Q225" s="12"/>
@@ -15991,10 +15992,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="C226" s="17" t="s">
         <v>682</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>683</v>
       </c>
       <c r="D226" s="17" t="s">
         <v>475</v>
@@ -16030,7 +16031,7 @@
         <v>37</v>
       </c>
       <c r="O226" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P226" s="12"/>
       <c r="Q226" s="12"/>
@@ -16050,10 +16051,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="C227" s="17" t="s">
         <v>685</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>686</v>
       </c>
       <c r="D227" s="17" t="s">
         <v>475</v>
@@ -16089,7 +16090,7 @@
         <v>37</v>
       </c>
       <c r="O227" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P227" s="12"/>
       <c r="Q227" s="12"/>
@@ -16109,10 +16110,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C228" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>689</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>475</v>
@@ -16148,7 +16149,7 @@
         <v>37</v>
       </c>
       <c r="O228" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P228" s="12"/>
       <c r="Q228" s="12"/>
@@ -16168,10 +16169,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="C229" s="17" t="s">
         <v>690</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>691</v>
       </c>
       <c r="D229" s="17" t="s">
         <v>475</v>
@@ -16207,7 +16208,7 @@
         <v>37</v>
       </c>
       <c r="O229" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P229" s="12"/>
       <c r="Q229" s="12"/>
@@ -16227,10 +16228,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="C230" s="17" t="s">
         <v>693</v>
-      </c>
-      <c r="C230" s="17" t="s">
-        <v>694</v>
       </c>
       <c r="D230" s="17" t="s">
         <v>515</v>
@@ -16254,7 +16255,7 @@
         <v>42000</v>
       </c>
       <c r="K230" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L230" s="8" t="s">
         <v>152</v>
@@ -16266,7 +16267,7 @@
         <v>37</v>
       </c>
       <c r="O230" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P230" s="12"/>
       <c r="Q230" s="12"/>
@@ -16286,10 +16287,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="C231" s="17" t="s">
         <v>696</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>697</v>
       </c>
       <c r="D231" s="17" t="s">
         <v>515</v>
@@ -16307,13 +16308,13 @@
         <v>61</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J231" s="11">
         <v>42000</v>
       </c>
       <c r="K231" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L231" s="8" t="s">
         <v>152</v>
@@ -16325,7 +16326,7 @@
         <v>37</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P231" s="12"/>
       <c r="Q231" s="12"/>
@@ -16345,10 +16346,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="C232" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>701</v>
       </c>
       <c r="D232" s="17" t="s">
         <v>515</v>
@@ -16372,7 +16373,7 @@
         <v>42000</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L232" s="8" t="s">
         <v>152</v>
@@ -16384,7 +16385,7 @@
         <v>37</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P232" s="12"/>
       <c r="Q232" s="12"/>
@@ -16404,10 +16405,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C233" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>704</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>515</v>
@@ -16431,7 +16432,7 @@
         <v>42000</v>
       </c>
       <c r="K233" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L233" s="8" t="s">
         <v>24</v>
@@ -16443,7 +16444,7 @@
         <v>27</v>
       </c>
       <c r="O233" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P233" s="12"/>
       <c r="Q233" s="12"/>
@@ -38301,5 +38302,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>